--- a/resources/table/board.xlsx
+++ b/resources/table/board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB64DB69-7A92-4F07-A04E-76F4DCDCA7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A7C74-D341-4F0A-ADE9-5806AAF2C09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{182A1246-FECB-4C40-8695-2AB823971D67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,23 +66,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint8_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dsl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin(true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C987132-D57A-4170-85AC-459807119D49}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -489,7 +485,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,14 +495,8 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -516,14 +506,8 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -533,45 +517,27 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>255</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
